--- a/assets/excel/data.xlsx
+++ b/assets/excel/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9072" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parking City " sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,11 +985,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" customWidth="1"/>
@@ -997,7 +997,7 @@
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>7275</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>5155</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1112,13 +1112,13 @@
       <selection activeCell="J23" activeCellId="1" sqref="C14 J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1264,10 +1264,10 @@
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
@@ -1275,7 +1275,7 @@
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -4764,11 +4764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="61" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -4787,7 +4787,7 @@
     <col min="16" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>123</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="172.8">
+    <row r="2" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="115.2">
+    <row r="3" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="115.2">
+    <row r="4" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="316.8">
+    <row r="5" spans="1:15" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="158.4">
+    <row r="6" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="158.4">
+    <row r="7" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>135</v>
       </c>
@@ -5077,11 +5077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -5093,7 +5093,7 @@
     <col min="14" max="14" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>67</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>67</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0.12</v>
       </c>
       <c r="F108" s="1">
-        <v>3.12</v>
+        <v>6.12</v>
       </c>
       <c r="G108" s="3">
         <v>0.33333333333333331</v>
@@ -9845,7 +9845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -10299,12 +10299,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -10346,16 +10346,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2025</v>
       </c>
